--- a/Coaches_carreers/Coaches/Frank Lampard.xlsx
+++ b/Coaches_carreers/Coaches/Frank Lampard.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE64"/>
+  <dimension ref="A1:AF58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,11 +593,16 @@
           <t>ProbA</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -606,20 +611,20 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43563</v>
+        <v>43688</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Man United</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -642,32 +647,32 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C Kavanagh</t>
+          <t>A Taylor</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="O2" t="n">
+        <v>5</v>
+      </c>
+      <c r="P2" t="n">
         <v>7</v>
       </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
       <c r="Q2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="R2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -678,31 +683,36 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>1.33</v>
+        <v>2.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01035196687370599</v>
+        <v>0.02164502164502169</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.7415277323744143</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.1635610766045549</v>
+        <v>0.2813852813852813</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.09491119102103085</v>
+        <v>0.264069264069264</v>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -711,68 +721,68 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>43569</v>
+        <v>43695</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>H</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>M Oliver</t>
+          <t>O Langford</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R3" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -783,31 +793,36 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01032702237521514</v>
+        <v>0.01830065359477125</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.5920826161790018</v>
+        <v>0.5699346405228758</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.227768215720023</v>
+        <v>0.2483660130718954</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1801491681009753</v>
+        <v>0.1816993464052288</v>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -816,65 +831,65 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>43577</v>
+        <v>43701</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>K Friend</t>
+          <t>M Atkinson</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="O4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q4" t="n">
         <v>9</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -888,31 +903,36 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>1.25</v>
+        <v>4.33</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>1.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.008888888888888946</v>
+        <v>0.01772303481310411</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.7911111111111111</v>
+        <v>0.2132238474039859</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1511111111111111</v>
+        <v>0.2489436318535626</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.05777777777777772</v>
+        <v>0.5378325207424515</v>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -921,23 +941,23 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>43583</v>
+        <v>43708</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Man United</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Sheffield United</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -945,44 +965,44 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>M Atkinson</t>
+          <t>S Attwell</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N5" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>5</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -993,31 +1013,36 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>2.7</v>
+        <v>1.36</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.008818342151675504</v>
+        <v>0.01897718151588116</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3615520282186949</v>
+        <v>0.7163169361311776</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.2768959435626102</v>
+        <v>0.1915491342735925</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.3615520282186949</v>
+        <v>0.09213392959522994</v>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1026,68 +1051,68 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>43590</v>
+        <v>43722</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>P Tierney</t>
+          <t>G Scott</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="N6" t="n">
         <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1098,31 +1123,36 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.009920634920634885</v>
+        <v>0.01595262974573316</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7043650793650794</v>
+        <v>0.3288749564611634</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.1805555555555556</v>
+        <v>0.2870776732845699</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.1150793650793651</v>
+        <v>0.3840473702542669</v>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1131,68 +1161,68 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>43597</v>
+        <v>43730</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>A Taylor</t>
+          <t>M Oliver</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N7" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1203,25 +1233,30 @@
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z7" t="n">
         <v>3.75</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.009386973180076641</v>
+        <v>0.01746031746031747</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.40727969348659</v>
+        <v>0.2682539682539682</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.25727969348659</v>
+        <v>0.2492063492063492</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.3354406130268199</v>
+        <v>0.4825396825396825</v>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1236,20 +1271,20 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>43688</v>
+        <v>43736</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Man United</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1260,44 +1295,44 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>A Taylor</t>
+          <t>C Kavanagh</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N8" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
+        <v>10</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
         <v>5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>15</v>
       </c>
       <c r="R8" t="n">
         <v>13</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1308,25 +1343,30 @@
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.02164502164502169</v>
+        <v>0.01660401002506262</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6976817042606517</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.2813852813852813</v>
+        <v>0.1939223057644111</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.264069264069264</v>
+        <v>0.1083959899749374</v>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1341,68 +1381,68 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>43695</v>
+        <v>43744</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>O Langford</t>
+          <t>P Tierney</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1413,25 +1453,30 @@
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.01830065359477125</v>
+        <v>0.01789947842579413</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.5699346405228758</v>
+        <v>0.2321005215742059</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.2483660130718954</v>
+        <v>0.245258416311048</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.1816993464052288</v>
+        <v>0.5226410621147464</v>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1446,34 +1491,34 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>43701</v>
+        <v>43757</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1482,29 +1527,29 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>M Atkinson</t>
+          <t>A Marriner</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N10" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>9</v>
       </c>
       <c r="R10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
@@ -1518,25 +1563,30 @@
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>4.33</v>
+        <v>1.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01772303481310411</v>
+        <v>0.01701631701631704</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.2132238474039859</v>
+        <v>0.7522144522144522</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.2489436318535626</v>
+        <v>0.1648018648018648</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.5378325207424515</v>
+        <v>0.08298368298368296</v>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1551,68 +1601,68 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>43708</v>
+        <v>43764</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sheffield United</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>S Attwell</t>
+          <t>M Oliver</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>13</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O11" t="n">
         <v>5</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1623,25 +1673,30 @@
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>1.36</v>
+        <v>4.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AA11" t="n">
-        <v>9</v>
+        <v>1.72</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01897718151588116</v>
+        <v>0.01787252368647718</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.7163169361311776</v>
+        <v>0.204349698535745</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.1915491342735925</v>
+        <v>0.2321274763135228</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.09213392959522994</v>
+        <v>0.5635228251507322</v>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1656,11 +1711,11 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>43722</v>
+        <v>43771</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1669,10 +1724,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1683,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1692,29 +1747,29 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>G Scott</t>
+          <t>A Taylor</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="n">
         <v>8</v>
       </c>
       <c r="R12" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1728,25 +1783,30 @@
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.5</v>
+        <v>1.61</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01595262974573316</v>
+        <v>0.01735496487981673</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.3288749564611634</v>
+        <v>0.1826450351201833</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.2870776732845699</v>
+        <v>0.2135919173372733</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.3840473702542669</v>
+        <v>0.6037630475425435</v>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1761,7 +1821,7 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>43730</v>
+        <v>43778</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1770,59 +1830,59 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>M Oliver</t>
+          <t>M Dean</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S13" t="n">
         <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1833,25 +1893,30 @@
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>3.5</v>
+        <v>1.33</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AA13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01746031746031747</v>
+        <v>0.01729323308270677</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2682539682539682</v>
+        <v>0.7345864661654135</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.2492063492063492</v>
+        <v>0.1827067669172932</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.4825396825396825</v>
+        <v>0.08270676691729324</v>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1866,23 +1931,23 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>43736</v>
+        <v>43792</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1890,44 +1955,44 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C Kavanagh</t>
+          <t>M Atkinson</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
         <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1938,25 +2003,30 @@
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Z14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AA14" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.01660401002506262</v>
+        <v>0.01609686609686604</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.6976817042606517</v>
+        <v>0.6783475783475784</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.1939223057644111</v>
+        <v>0.183903133903134</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.1083959899749374</v>
+        <v>0.1377492877492878</v>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1971,68 +2041,68 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>43744</v>
+        <v>43799</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>J Moss</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>19</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6</v>
+      </c>
+      <c r="P15" t="n">
         <v>4</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>P Tierney</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>10</v>
-      </c>
-      <c r="N15" t="n">
-        <v>13</v>
-      </c>
-      <c r="O15" t="n">
-        <v>3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>7</v>
-      </c>
       <c r="Q15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -2043,25 +2113,30 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="n">
-        <v>4</v>
+        <v>1.28</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.85</v>
+        <v>9</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.01789947842579413</v>
+        <v>0.01967592592592589</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.2321005215742059</v>
+        <v>0.7615740740740741</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.245258416311048</v>
+        <v>0.1469907407407408</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.5226410621147464</v>
+        <v>0.09143518518518522</v>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2076,7 +2151,7 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>43757</v>
+        <v>43803</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2085,14 +2160,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2100,10 +2175,10 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -2112,26 +2187,26 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>A Marriner</t>
+          <t>C Kavanagh</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="R16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S16" t="n">
         <v>2</v>
@@ -2148,25 +2223,30 @@
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="AA16" t="n">
         <v>10</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.01701631701631704</v>
+        <v>0.01838768115942028</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.7522144522144522</v>
+        <v>0.7628623188405798</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.1648018648018648</v>
+        <v>0.1555253623188406</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.08298368298368296</v>
+        <v>0.08161231884057972</v>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2181,11 +2261,11 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>43764</v>
+        <v>43806</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2194,55 +2274,55 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>M Oliver</t>
+          <t>C Pawson</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>13</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="R17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S17" t="n">
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2253,25 +2333,30 @@
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.01787252368647718</v>
+        <v>0.01746031746031747</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.204349698535745</v>
+        <v>0.2682539682539682</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.2321274763135228</v>
+        <v>0.2492063492063492</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.5635228251507322</v>
+        <v>0.4825396825396825</v>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2286,23 +2371,23 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>43771</v>
+        <v>43813</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2313,38 +2398,38 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>A Taylor</t>
+          <t>G Scott</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N18" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P18" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -2358,25 +2443,30 @@
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="n">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="Z18" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.61</v>
+        <v>12</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.01735496487981673</v>
+        <v>0.01666666666666668</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1826450351201833</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.2135919173372733</v>
+        <v>0.15</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.6037630475425435</v>
+        <v>0.06666666666666665</v>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2391,71 +2481,71 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>43778</v>
+        <v>43821</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>M Dean</t>
+          <t>A Taylor</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
         <v>9</v>
       </c>
       <c r="R19" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2463,25 +2553,30 @@
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="n">
-        <v>1.33</v>
+        <v>2.37</v>
       </c>
       <c r="Z19" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AA19" t="n">
-        <v>10</v>
+        <v>2.75</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01729323308270677</v>
+        <v>0.01741465285769076</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.7345864661654135</v>
+        <v>0.4045262754123514</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.1827067669172932</v>
+        <v>0.2492520138089759</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.08270676691729324</v>
+        <v>0.3462217107786729</v>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2496,68 +2591,68 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>43792</v>
+        <v>43825</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>M Atkinson</t>
+          <t>J Moss</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R20" t="n">
         <v>9</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2568,25 +2663,30 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="Z20" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.01609686609686604</v>
+        <v>0.0178223336118073</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.6783475783475784</v>
+        <v>0.734057365636313</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.183903133903134</v>
+        <v>0.1726538568643832</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.1377492877492878</v>
+        <v>0.09328877749930381</v>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2601,23 +2701,23 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>43799</v>
+        <v>43828</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2625,44 +2725,44 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>J Moss</t>
+          <t>C Pawson</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R21" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2673,25 +2773,30 @@
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="n">
-        <v>1.28</v>
+        <v>2.87</v>
       </c>
       <c r="Z21" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="AA21" t="n">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.01967592592592589</v>
+        <v>0.01662711037048255</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.7615740740740741</v>
+        <v>0.3318049453786464</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.1469907407407408</v>
+        <v>0.2500395562961841</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.09143518518518522</v>
+        <v>0.4181554983251697</v>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2706,68 +2811,68 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>43803</v>
+        <v>43831</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C Kavanagh</t>
+          <t>S Attwell</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="R22" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S22" t="n">
         <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2778,25 +2883,30 @@
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>1.28</v>
+        <v>3.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="AA22" t="n">
-        <v>10</v>
+        <v>1.95</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.01838768115942028</v>
+        <v>0.02279202279202286</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.7628623188405798</v>
+        <v>0.2549857549857549</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.1555253623188406</v>
+        <v>0.2549857549857549</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.08161231884057972</v>
+        <v>0.49002849002849</v>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2811,23 +2921,23 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>43806</v>
+        <v>43841</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2835,7 +2945,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2847,32 +2957,32 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C Pawson</t>
+          <t>K Friend</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N23" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
+        <v>8</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
         <v>7</v>
       </c>
-      <c r="P23" t="n">
+      <c r="R23" t="n">
         <v>4</v>
       </c>
-      <c r="Q23" t="n">
-        <v>14</v>
-      </c>
-      <c r="R23" t="n">
-        <v>9</v>
-      </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2883,25 +2993,30 @@
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="n">
-        <v>3.5</v>
+        <v>1.28</v>
       </c>
       <c r="Z23" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.01746031746031747</v>
+        <v>0.01799242424242424</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.2682539682539682</v>
+        <v>0.7632575757575758</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.2492063492063492</v>
+        <v>0.1638257575757576</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.4825396825396825</v>
+        <v>0.07291666666666667</v>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2916,27 +3031,27 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>43813</v>
+        <v>43848</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2952,20 +3067,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>G Scott</t>
+          <t>C Kavanagh</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N24" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="O24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
         <v>9</v>
@@ -2977,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2988,25 +3103,30 @@
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="n">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="Z24" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.01666666666666668</v>
+        <v>0.01851851851851845</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.1481481481481482</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.15</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.06666666666666665</v>
+        <v>0.6481481481481481</v>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,97 +3141,102 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>43821</v>
+        <v>43851</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>A Taylor</t>
+          <t>S Attwell</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R25" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="n">
-        <v>2.37</v>
+        <v>1.72</v>
       </c>
       <c r="Z25" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.01741465285769076</v>
+        <v>0.02000927582322938</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.4045262754123514</v>
+        <v>0.5613860730139799</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.2492520138089759</v>
+        <v>0.236400980587027</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.3462217107786729</v>
+        <v>0.2022129463989928</v>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3126,65 +3251,65 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>43825</v>
+        <v>43862</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>J Moss</t>
+          <t>L Mason</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R26" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
         <v>2</v>
@@ -3198,25 +3323,30 @@
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="n">
-        <v>1.33</v>
+        <v>2.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.0178223336118073</v>
+        <v>0.01604938271604943</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.734057365636313</v>
+        <v>0.3839506172839506</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.1726538568643832</v>
+        <v>0.2617283950617283</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.09328877749930381</v>
+        <v>0.3543209876543209</v>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3231,20 +3361,20 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>43828</v>
+        <v>43878</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Man United</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -3255,44 +3385,44 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C Pawson</t>
+          <t>A Taylor</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>11</v>
+      </c>
+      <c r="R27" t="n">
+        <v>11</v>
+      </c>
+      <c r="S27" t="n">
         <v>4</v>
       </c>
-      <c r="Q27" t="n">
-        <v>13</v>
-      </c>
-      <c r="R27" t="n">
-        <v>19</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
       <c r="T27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -3303,25 +3433,30 @@
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="n">
-        <v>2.87</v>
+        <v>1.85</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.01662711037048255</v>
+        <v>0.01615901615901609</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.3318049453786464</v>
+        <v>0.5243815243815244</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.2500395562961841</v>
+        <v>0.2695552695552696</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.4181554983251697</v>
+        <v>0.2060632060632061</v>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3336,68 +3471,68 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>43831</v>
+        <v>43883</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>S Attwell</t>
+          <t>M Oliver</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N28" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="O28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="R28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -3408,25 +3543,30 @@
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="n">
-        <v>3.6</v>
+        <v>1.72</v>
       </c>
       <c r="Z28" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.02279202279202286</v>
+        <v>0.01787252368647718</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.2549857549857549</v>
+        <v>0.5635228251507322</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.2549857549857549</v>
+        <v>0.2321274763135228</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.49002849002849</v>
+        <v>0.204349698535745</v>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3441,68 +3581,68 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>43841</v>
+        <v>43890</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>K Friend</t>
+          <t>A Marriner</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N29" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="O29" t="n">
+        <v>5</v>
+      </c>
+      <c r="P29" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q29" t="n">
         <v>8</v>
       </c>
-      <c r="P29" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>7</v>
-      </c>
       <c r="R29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -3513,25 +3653,30 @@
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="n">
-        <v>1.28</v>
+        <v>4.75</v>
       </c>
       <c r="Z29" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>11</v>
+        <v>1.72</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.01799242424242424</v>
+        <v>0.01835985312117505</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.7632575757575758</v>
+        <v>0.1921664626682986</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.1638257575757576</v>
+        <v>0.244798041615667</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.07291666666666667</v>
+        <v>0.5630354957160343</v>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3546,20 +3691,20 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>43848</v>
+        <v>43898</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -3570,44 +3715,44 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C Kavanagh</t>
+          <t>K Friend</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N30" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R30" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3618,25 +3763,30 @@
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.01851851851851845</v>
+        <v>0.0166870166870167</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.1481481481481482</v>
+        <v>0.5388685388685389</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.2397232397232398</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.6481481481481481</v>
+        <v>0.2214082214082214</v>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3651,27 +3801,27 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>43851</v>
+        <v>44003</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -3687,26 +3837,26 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>S Attwell</t>
+          <t>P Tierney</t>
         </is>
       </c>
       <c r="M31" t="n">
+        <v>8</v>
+      </c>
+      <c r="N31" t="n">
         <v>19</v>
       </c>
-      <c r="N31" t="n">
-        <v>2</v>
-      </c>
       <c r="O31" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R31" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="S31" t="n">
         <v>2</v>
@@ -3718,30 +3868,35 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="n">
-        <v>1.72</v>
+        <v>6</v>
       </c>
       <c r="Z31" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.02000927582322938</v>
+        <v>0.01851851851851845</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.5613860730139799</v>
+        <v>0.1481481481481482</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.236400980587027</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.2022129463989928</v>
+        <v>0.6481481481481481</v>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3756,97 +3911,102 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>43862</v>
+        <v>44007</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>L Mason</t>
+          <t>S Attwell</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N32" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R32" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Z32" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AA32" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.01604938271604943</v>
+        <v>0.01851851851851853</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.3839506172839506</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.2617283950617283</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.3543209876543209</v>
+        <v>0.5370370370370371</v>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3861,68 +4021,68 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>43878</v>
+        <v>44013</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Man United</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>A Taylor</t>
+          <t>M Atkinson</t>
         </is>
       </c>
       <c r="M33" t="n">
+        <v>10</v>
+      </c>
+      <c r="N33" t="n">
         <v>17</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
+        <v>4</v>
+      </c>
+      <c r="P33" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>10</v>
+      </c>
+      <c r="R33" t="n">
         <v>9</v>
       </c>
-      <c r="O33" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>11</v>
-      </c>
-      <c r="R33" t="n">
-        <v>11</v>
-      </c>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3933,25 +4093,30 @@
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="n">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AA33" t="n">
-        <v>4.5</v>
+        <v>1.57</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.01615901615901609</v>
+        <v>0.01656924639816918</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.5243815243815244</v>
+        <v>0.1652489354200126</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.2695552695552696</v>
+        <v>0.2143776358189209</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.2060632060632061</v>
+        <v>0.6203734287610665</v>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3966,7 +4131,7 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>43883</v>
+        <v>44016</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3975,14 +4140,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3990,7 +4155,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -4002,29 +4167,29 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>M Oliver</t>
+          <t>K Friend</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O34" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="R34" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>2</v>
@@ -4038,25 +4203,30 @@
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="n">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="Z34" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AA34" t="n">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.01787252368647718</v>
+        <v>0.01660401002506262</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.5635228251507322</v>
+        <v>0.6976817042606517</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.2321274763135228</v>
+        <v>0.1939223057644111</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.204349698535745</v>
+        <v>0.1083959899749374</v>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -4071,11 +4241,11 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>43890</v>
+        <v>44019</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4087,18 +4257,18 @@
         <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -4107,32 +4277,32 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>A Marriner</t>
+          <t>D Coote</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N35" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P35" t="n">
         <v>6</v>
       </c>
       <c r="Q35" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -4143,25 +4313,30 @@
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="n">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.01835985312117505</v>
+        <v>0.01805166511048865</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.1921664626682986</v>
+        <v>0.09959539371304076</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.244798041615667</v>
+        <v>0.2041705571117336</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.5630354957160343</v>
+        <v>0.6962340491752257</v>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -4176,68 +4351,68 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>43898</v>
+        <v>44023</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Sheffield United</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>A Marriner</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>9</v>
+      </c>
+      <c r="N36" t="n">
+        <v>15</v>
+      </c>
+      <c r="O36" t="n">
         <v>4</v>
       </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>2</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>K Friend</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>17</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3</v>
-      </c>
-      <c r="O36" t="n">
-        <v>11</v>
-      </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
         <v>8</v>
       </c>
       <c r="R36" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -4248,25 +4423,30 @@
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="Z36" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AA36" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.0166870166870167</v>
+        <v>0.01827485380116959</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.5388685388685389</v>
+        <v>0.1483918128654971</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.2397232397232398</v>
+        <v>0.2448830409356725</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.2214082214082214</v>
+        <v>0.6067251461988304</v>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -4281,27 +4461,27 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>44003</v>
+        <v>44026</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -4317,32 +4497,32 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>P Tierney</t>
+          <t>J Moss</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N37" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
+        <v>10</v>
+      </c>
+      <c r="R37" t="n">
         <v>9</v>
       </c>
-      <c r="R37" t="n">
-        <v>17</v>
-      </c>
       <c r="S37" t="n">
         <v>2</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -4353,25 +4533,30 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="n">
-        <v>6</v>
+        <v>1.12</v>
       </c>
       <c r="Z37" t="n">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>1.5</v>
+        <v>17</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.01851851851851845</v>
+        <v>0.01898127672121475</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.1481481481481482</v>
+        <v>0.873875866135928</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.08628188117352209</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.6481481481481481</v>
+        <v>0.03984225269054996</v>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -4386,23 +4571,23 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>44007</v>
+        <v>44034</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -4410,10 +4595,10 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -4422,61 +4607,66 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>S Attwell</t>
+          <t>A Marriner</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N38" t="n">
+        <v>10</v>
+      </c>
+      <c r="O38" t="n">
+        <v>7</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>8</v>
+      </c>
+      <c r="R38" t="n">
         <v>11</v>
       </c>
-      <c r="O38" t="n">
-        <v>10</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>13</v>
-      </c>
-      <c r="R38" t="n">
-        <v>3</v>
-      </c>
       <c r="S38" t="n">
         <v>1</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z38" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AA38" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.01851851851851853</v>
+        <v>0.0174603174603174</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.2314814814814815</v>
+        <v>0.4825396825396826</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.2314814814814815</v>
+        <v>0.2492063492063493</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.5370370370370371</v>
+        <v>0.2682539682539683</v>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -4491,23 +4681,23 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>44013</v>
+        <v>44038</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -4515,44 +4705,44 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>M Atkinson</t>
+          <t>S Attwell</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N39" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="O39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
         <v>10</v>
       </c>
       <c r="R39" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="S39" t="n">
         <v>2</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -4563,31 +4753,36 @@
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="n">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="Z39" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="AA39" t="n">
-        <v>1.57</v>
+        <v>4</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.01656924639816918</v>
+        <v>0.0178994784257942</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.1652489354200126</v>
+        <v>0.5226410621147463</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.2143776358189209</v>
+        <v>0.2452584163110479</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.6203734287610665</v>
+        <v>0.2321005215742058</v>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4596,68 +4791,68 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>44016</v>
+        <v>44088</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>K Friend</t>
+          <t>C Pawson</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N40" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O40" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -4668,31 +4863,36 @@
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="Z40" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AA40" t="n">
-        <v>8</v>
+        <v>1.61</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.01660401002506262</v>
+        <v>0.01735496487981673</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.6976817042606517</v>
+        <v>0.1826450351201833</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.1939223057644111</v>
+        <v>0.2135919173372733</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.1083959899749374</v>
+        <v>0.6037630475425435</v>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4701,23 +4901,23 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>44019</v>
+        <v>44094</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -4725,47 +4925,47 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>D Coote</t>
+          <t>P Tierney</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N41" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P41" t="n">
         <v>6</v>
       </c>
       <c r="Q41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R41" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4773,31 +4973,36 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="n">
-        <v>8.5</v>
+        <v>3.1</v>
       </c>
       <c r="Z41" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="AA41" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.01805166511048865</v>
+        <v>0.01830129249484092</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.09959539371304076</v>
+        <v>0.3042793526664494</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.2041705571117336</v>
+        <v>0.2594764852829369</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.6962340491752257</v>
+        <v>0.4362441620506136</v>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4806,11 +5011,11 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>44023</v>
+        <v>44100</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sheffield United</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4822,52 +5027,52 @@
         <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
           <t>H</t>
         </is>
       </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>A Marriner</t>
+          <t>J Moss</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>9</v>
       </c>
       <c r="N42" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="O42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P42" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q42" t="n">
         <v>8</v>
       </c>
       <c r="R42" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -4878,31 +5083,36 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Z42" t="n">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="AA42" t="n">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.01827485380116959</v>
+        <v>0.01897718151588116</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.1483918128654971</v>
+        <v>0.09213392959522994</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.2448830409356725</v>
+        <v>0.1915491342735925</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.6067251461988304</v>
+        <v>0.7163169361311776</v>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4911,7 +5121,7 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>44026</v>
+        <v>44107</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4920,11 +5130,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4935,26 +5145,26 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>J Moss</t>
+          <t>M Oliver</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O43" t="n">
         <v>6</v>
@@ -4963,16 +5173,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="R43" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S43" t="n">
         <v>2</v>
       </c>
       <c r="T43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4983,31 +5193,36 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="n">
-        <v>1.12</v>
+        <v>1.4</v>
       </c>
       <c r="Z43" t="n">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="AA43" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.01898127672121475</v>
+        <v>0.01660401002506262</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.873875866135928</v>
+        <v>0.6976817042606517</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.08628188117352209</v>
+        <v>0.1939223057644111</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.03984225269054996</v>
+        <v>0.1083959899749374</v>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5016,68 +5231,68 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>44034</v>
+        <v>44121</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>P Bankes</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>11</v>
+      </c>
+      <c r="N44" t="n">
+        <v>13</v>
+      </c>
+      <c r="O44" t="n">
         <v>5</v>
       </c>
-      <c r="G44" t="n">
-        <v>3</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>3</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>A Marriner</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>10</v>
-      </c>
-      <c r="N44" t="n">
-        <v>10</v>
-      </c>
-      <c r="O44" t="n">
-        <v>7</v>
-      </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q44" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R44" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -5088,31 +5303,36 @@
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="n">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="Z44" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AA44" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.0174603174603174</v>
+        <v>0.0180092140164736</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.4825396825396826</v>
+        <v>0.6716459583973196</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.2492063492063493</v>
+        <v>0.1925171017730001</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.2682539682539683</v>
+        <v>0.1358369398296803</v>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5121,68 +5341,68 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>44038</v>
+        <v>44128</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Man United</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>S Attwell</t>
+          <t>M Atkinson</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R45" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -5193,25 +5413,30 @@
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="n">
-        <v>1.85</v>
+        <v>2.37</v>
       </c>
       <c r="Z45" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AA45" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.0178994784257942</v>
+        <v>0.01895385439689234</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.5226410621147463</v>
+        <v>0.4029870738731498</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.2452584163110479</v>
+        <v>0.2588239233808854</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.2321005215742058</v>
+        <v>0.3381890027459648</v>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -5226,11 +5451,11 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>44088</v>
+        <v>44135</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -5239,7 +5464,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -5262,26 +5487,26 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C Pawson</t>
+          <t>D Coote</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N46" t="n">
+        <v>14</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q46" t="n">
         <v>10</v>
       </c>
-      <c r="O46" t="n">
-        <v>3</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>8</v>
-      </c>
       <c r="R46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S46" t="n">
         <v>1</v>
@@ -5298,25 +5523,30 @@
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z46" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.01735496487981673</v>
+        <v>0.01851851851851845</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.1826450351201833</v>
+        <v>0.1481481481481482</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.2135919173372733</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.6037630475425435</v>
+        <v>0.6481481481481481</v>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -5331,7 +5561,7 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>44094</v>
+        <v>44142</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5340,62 +5570,62 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Sheffield United</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>P Tierney</t>
+          <t>J Moss</t>
         </is>
       </c>
       <c r="M47" t="n">
+        <v>20</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6</v>
+      </c>
+      <c r="O47" t="n">
+        <v>9</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
         <v>5</v>
       </c>
-      <c r="N47" t="n">
-        <v>18</v>
-      </c>
-      <c r="O47" t="n">
-        <v>3</v>
-      </c>
-      <c r="P47" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>10</v>
-      </c>
       <c r="R47" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -5403,25 +5633,30 @@
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="n">
-        <v>3.1</v>
+        <v>1.36</v>
       </c>
       <c r="Z47" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="AA47" t="n">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.01830129249484092</v>
+        <v>0.01764705882352942</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.3042793526664494</v>
+        <v>0.7176470588235293</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.2594764852829369</v>
+        <v>0.1823529411764706</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.4362441620506136</v>
+        <v>0.09999999999999999</v>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -5436,11 +5671,11 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>44100</v>
+        <v>44156</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -5449,55 +5684,55 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>J Moss</t>
+          <t>C Pawson</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N48" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R48" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -5508,25 +5743,30 @@
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Z48" t="n">
         <v>4.75</v>
       </c>
       <c r="AA48" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.01897718151588116</v>
+        <v>0.0180092140164736</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.09213392959522994</v>
+        <v>0.1358369398296803</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.1915491342735925</v>
+        <v>0.1925171017730001</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.7163169361311776</v>
+        <v>0.6716459583973196</v>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -5541,7 +5781,7 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>44107</v>
+        <v>44164</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5550,59 +5790,59 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>P Tierney</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>13</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5</v>
+      </c>
+      <c r="O49" t="n">
+        <v>3</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>20</v>
+      </c>
+      <c r="R49" t="n">
+        <v>9</v>
+      </c>
+      <c r="S49" t="n">
         <v>4</v>
       </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>M Oliver</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>17</v>
-      </c>
-      <c r="N49" t="n">
-        <v>4</v>
-      </c>
-      <c r="O49" t="n">
-        <v>6</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>17</v>
-      </c>
-      <c r="R49" t="n">
-        <v>13</v>
-      </c>
-      <c r="S49" t="n">
-        <v>2</v>
-      </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
@@ -5613,25 +5853,30 @@
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="n">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="Z49" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="AA49" t="n">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.01660401002506262</v>
+        <v>0.01709898051361473</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.6976817042606517</v>
+        <v>0.4707058975351658</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.1939223057644111</v>
+        <v>0.268615305200671</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.1083959899749374</v>
+        <v>0.260678797264163</v>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -5646,7 +5891,7 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>44121</v>
+        <v>44170</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5655,59 +5900,59 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F50" t="n">
         <v>3</v>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>P Bankes</t>
+          <t>K Friend</t>
         </is>
       </c>
       <c r="M50" t="n">
+        <v>23</v>
+      </c>
+      <c r="N50" t="n">
+        <v>8</v>
+      </c>
+      <c r="O50" t="n">
         <v>11</v>
       </c>
-      <c r="N50" t="n">
-        <v>13</v>
-      </c>
-      <c r="O50" t="n">
-        <v>5</v>
-      </c>
       <c r="P50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R50" t="n">
         <v>9</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -5718,25 +5963,30 @@
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AA50" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.0180092140164736</v>
+        <v>0.01851851851851853</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.6716459583973196</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.1925171017730001</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.1358369398296803</v>
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -5751,11 +6001,11 @@
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>44128</v>
+        <v>44177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Man United</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -5764,55 +6014,55 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>M Atkinson</t>
+          <t>J Moss</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N51" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O51" t="n">
         <v>4</v>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q51" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R51" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
@@ -5823,25 +6073,30 @@
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="n">
-        <v>2.37</v>
+        <v>4.33</v>
       </c>
       <c r="Z51" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AA51" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.01895385439689234</v>
+        <v>0.01909247147665842</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.4029870738731498</v>
+        <v>0.2118544107404317</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.2588239233808854</v>
+        <v>0.2190027666185797</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.3381890027459648</v>
+        <v>0.5691428226409887</v>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -5856,11 +6111,11 @@
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>44135</v>
+        <v>44180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -5869,55 +6124,55 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>D Coote</t>
+          <t>S Attwell</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N52" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P52" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U52" t="n">
         <v>0</v>
@@ -5928,25 +6183,30 @@
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Z52" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="AA52" t="n">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.01851851851851845</v>
+        <v>0.01868124125574984</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.1481481481481482</v>
+        <v>0.1717949492204406</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.2444766534810922</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.6481481481481481</v>
+        <v>0.583728397298467</v>
+      </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -5961,7 +6221,7 @@
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>44142</v>
+        <v>44186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5970,14 +6230,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sheffield United</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -5985,10 +6245,10 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5997,32 +6257,32 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>J Moss</t>
+          <t>C Kavanagh</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N53" t="n">
         <v>6</v>
       </c>
       <c r="O53" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R53" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
         <v>0</v>
@@ -6033,25 +6293,30 @@
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Z53" t="n">
         <v>5</v>
       </c>
       <c r="AA53" t="n">
-        <v>8.5</v>
+        <v>6.25</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.01764705882352942</v>
+        <v>0.0181481481481481</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.7176470588235293</v>
+        <v>0.6762962962962963</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.1823529411764706</v>
+        <v>0.1818518518518519</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.1418518518518519</v>
+      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -6066,11 +6331,11 @@
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>44156</v>
+        <v>44191</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -6079,55 +6344,55 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C Pawson</t>
+          <t>M Oliver</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N54" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O54" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
       </c>
       <c r="Q54" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R54" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S54" t="n">
         <v>2</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
@@ -6138,25 +6403,30 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Z54" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="AA54" t="n">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.0180092140164736</v>
+        <v>0.01803118908382066</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.1358369398296803</v>
+        <v>0.2319688109161794</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.1925171017730001</v>
+        <v>0.2597465886939571</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.6716459583973196</v>
+        <v>0.5082846003898636</v>
+      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -6171,7 +6441,7 @@
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>44164</v>
+        <v>44193</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6180,14 +6450,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -6195,44 +6465,44 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>P Tierney</t>
+          <t>S Attwell</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N55" t="n">
+        <v>10</v>
+      </c>
+      <c r="O55" t="n">
         <v>5</v>
       </c>
-      <c r="O55" t="n">
-        <v>3</v>
-      </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q55" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R55" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
@@ -6243,25 +6513,30 @@
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="n">
-        <v>2.05</v>
+        <v>1.61</v>
       </c>
       <c r="Z55" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="AA55" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.01709898051361473</v>
+        <v>0.01973775017253273</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.4707058975351658</v>
+        <v>0.6013802622498274</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.268615305200671</v>
+        <v>0.2183574879227053</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.260678797264163</v>
+        <v>0.1802622498274673</v>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -6276,7 +6551,7 @@
         </is>
       </c>
       <c r="C56" s="2" t="n">
-        <v>44170</v>
+        <v>44199</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6285,59 +6560,59 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>K Friend</t>
+          <t>A Taylor</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="N56" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="O56" t="n">
+        <v>2</v>
+      </c>
+      <c r="P56" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q56" t="n">
         <v>11</v>
       </c>
-      <c r="P56" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>12</v>
-      </c>
       <c r="R56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
@@ -6348,25 +6623,30 @@
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="Z56" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="AA56" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.01851851851851853</v>
+        <v>0.01938301938301934</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.6481481481481481</v>
+        <v>0.313950313950314</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.2508872508872509</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.4351624351624352</v>
+      </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -6381,11 +6661,11 @@
         </is>
       </c>
       <c r="C57" s="2" t="n">
-        <v>44177</v>
+        <v>44212</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -6394,50 +6674,50 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>J Moss</t>
+          <t>P Bankes</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N57" t="n">
+        <v>21</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3</v>
+      </c>
+      <c r="P57" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>11</v>
+      </c>
+      <c r="R57" t="n">
         <v>10</v>
       </c>
-      <c r="O57" t="n">
-        <v>4</v>
-      </c>
-      <c r="P57" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>10</v>
-      </c>
-      <c r="R57" t="n">
-        <v>11</v>
-      </c>
       <c r="S57" t="n">
         <v>2</v>
       </c>
@@ -6445,7 +6725,7 @@
         <v>3</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -6453,25 +6733,30 @@
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z57" t="n">
         <v>4.33</v>
       </c>
-      <c r="Z57" t="n">
-        <v>4.2</v>
-      </c>
       <c r="AA57" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.01909247147665842</v>
+        <v>0.01715323424330354</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.2118544107404317</v>
+        <v>0.1366929196028503</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.2190027666185797</v>
+        <v>0.2137936479737865</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.5691428226409887</v>
+        <v>0.6495134324233631</v>
+      </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -6486,11 +6771,11 @@
         </is>
       </c>
       <c r="C58" s="2" t="n">
-        <v>44180</v>
+        <v>44215</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -6502,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -6510,44 +6795,44 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>S Attwell</t>
+          <t>C Pawson</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N58" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q58" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R58" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="S58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
@@ -6558,655 +6843,30 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="n">
-        <v>5.25</v>
+        <v>2.87</v>
       </c>
       <c r="Z58" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="AA58" t="n">
-        <v>1.66</v>
+        <v>2.45</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.01868124125574984</v>
+        <v>0.01690432270469159</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.1717949492204406</v>
+        <v>0.3315277330444373</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.2444766534810922</v>
+        <v>0.2772133243541319</v>
       </c>
       <c r="AE58" t="n">
-        <v>0.583728397298467</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2020-2021</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>44186</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Chelsea</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>West Ham</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>3</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C Kavanagh</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>11</v>
-      </c>
-      <c r="N59" t="n">
-        <v>6</v>
-      </c>
-      <c r="O59" t="n">
-        <v>7</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>11</v>
-      </c>
-      <c r="R59" t="n">
-        <v>6</v>
-      </c>
-      <c r="S59" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" t="n">
-        <v>0</v>
-      </c>
-      <c r="U59" t="n">
-        <v>0</v>
-      </c>
-      <c r="V59" t="n">
-        <v>0</v>
-      </c>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>0.0181481481481481</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>0.6762962962962963</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>0.1818518518518519</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>0.1418518518518519</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2020-2021</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="n">
-        <v>44191</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Arsenal</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Chelsea</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>3</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>M Oliver</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>15</v>
-      </c>
-      <c r="N60" t="n">
-        <v>19</v>
-      </c>
-      <c r="O60" t="n">
-        <v>7</v>
-      </c>
-      <c r="P60" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>13</v>
-      </c>
-      <c r="R60" t="n">
-        <v>10</v>
-      </c>
-      <c r="S60" t="n">
-        <v>2</v>
-      </c>
-      <c r="T60" t="n">
-        <v>1</v>
-      </c>
-      <c r="U60" t="n">
-        <v>0</v>
-      </c>
-      <c r="V60" t="n">
-        <v>0</v>
-      </c>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>0.01803118908382066</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>0.2319688109161794</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>0.2597465886939571</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>0.5082846003898636</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2020-2021</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="n">
-        <v>44193</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Chelsea</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Aston Villa</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>S Attwell</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>16</v>
-      </c>
-      <c r="N61" t="n">
-        <v>10</v>
-      </c>
-      <c r="O61" t="n">
-        <v>5</v>
-      </c>
-      <c r="P61" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>16</v>
-      </c>
-      <c r="R61" t="n">
-        <v>3</v>
-      </c>
-      <c r="S61" t="n">
-        <v>3</v>
-      </c>
-      <c r="T61" t="n">
-        <v>1</v>
-      </c>
-      <c r="U61" t="n">
-        <v>0</v>
-      </c>
-      <c r="V61" t="n">
-        <v>0</v>
-      </c>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>0.01973775017253273</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>0.6013802622498274</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>0.2183574879227053</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>0.1802622498274673</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2020-2021</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="n">
-        <v>44199</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Chelsea</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Man City</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" t="n">
-        <v>3</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>A Taylor</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>9</v>
-      </c>
-      <c r="N62" t="n">
-        <v>18</v>
-      </c>
-      <c r="O62" t="n">
-        <v>2</v>
-      </c>
-      <c r="P62" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>11</v>
-      </c>
-      <c r="R62" t="n">
-        <v>10</v>
-      </c>
-      <c r="S62" t="n">
-        <v>3</v>
-      </c>
-      <c r="T62" t="n">
-        <v>1</v>
-      </c>
-      <c r="U62" t="n">
-        <v>0</v>
-      </c>
-      <c r="V62" t="n">
-        <v>0</v>
-      </c>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>0.01938301938301934</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>0.313950313950314</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>0.2508872508872509</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>0.4351624351624352</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2020-2021</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>44212</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Fulham</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Chelsea</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>P Bankes</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>10</v>
-      </c>
-      <c r="N63" t="n">
-        <v>21</v>
-      </c>
-      <c r="O63" t="n">
-        <v>3</v>
-      </c>
-      <c r="P63" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>11</v>
-      </c>
-      <c r="R63" t="n">
-        <v>10</v>
-      </c>
-      <c r="S63" t="n">
-        <v>2</v>
-      </c>
-      <c r="T63" t="n">
-        <v>3</v>
-      </c>
-      <c r="U63" t="n">
-        <v>1</v>
-      </c>
-      <c r="V63" t="n">
-        <v>0</v>
-      </c>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>0.01715323424330354</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>0.1366929196028503</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0.2137936479737865</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>0.6495134324233631</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2020-2021</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="n">
-        <v>44215</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Leicester</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Chelsea</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>C Pawson</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>8</v>
-      </c>
-      <c r="N64" t="n">
-        <v>9</v>
-      </c>
-      <c r="O64" t="n">
-        <v>6</v>
-      </c>
-      <c r="P64" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>7</v>
-      </c>
-      <c r="R64" t="n">
-        <v>16</v>
-      </c>
-      <c r="S64" t="n">
-        <v>1</v>
-      </c>
-      <c r="T64" t="n">
-        <v>3</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0.01690432270469159</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0.3315277330444373</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0.2772133243541319</v>
-      </c>
-      <c r="AE64" t="n">
         <v>0.3912589426014308</v>
+      </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
   </sheetData>
